--- a/nv-verbindungen/n-v-verb.xlsx
+++ b/nv-verbindungen/n-v-verb.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15000" windowHeight="7995"/>
+    <workbookView xWindow="247" yWindow="123" windowWidth="15003" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="247">
   <si>
     <t>Mut haben</t>
   </si>
@@ -745,6 +745,18 @@
   </si>
   <si>
     <t>bać się [czegoś]</t>
+  </si>
+  <si>
+    <t>Mitleid haben mit D</t>
+  </si>
+  <si>
+    <t>współczuć [komuś]</t>
+  </si>
+  <si>
+    <t>Hass haben auf A</t>
+  </si>
+  <si>
+    <t>żywić nienawiść do [kogoś/czegoś]</t>
   </si>
 </sst>
 </file>
@@ -1086,20 +1098,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G123"/>
+  <dimension ref="B1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD123"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.75"/>
   <cols>
-    <col min="1" max="1" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -2224,6 +2236,22 @@
         <v>128</v>
       </c>
       <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B1:G123">
@@ -2240,7 +2268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2252,7 +2280,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nv-verbindungen/n-v-verb.xlsx
+++ b/nv-verbindungen/n-v-verb.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Arkusz2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Arkusz3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -25,21 +25,12 @@
     <t>być w sprzeczności z [czymś]</t>
   </si>
   <si>
-    <t>wegen etw G unter Anklage stehen</t>
-  </si>
-  <si>
     <t>być oskarżonym [o coś]</t>
   </si>
   <si>
-    <t>A auf Eis legen</t>
-  </si>
-  <si>
     <t>zawieszać [coś]</t>
   </si>
   <si>
-    <t>A zu Ende bringen</t>
-  </si>
-  <si>
     <t>zakończyć [coś]</t>
   </si>
   <si>
@@ -49,15 +40,9 @@
     <t>aresztować [kogoś]</t>
   </si>
   <si>
-    <t>A in Anspruch nehmen</t>
-  </si>
-  <si>
     <t>wymagać [czegoś]/wykorzystać [coś]</t>
   </si>
   <si>
-    <t>A unter Beweis stellen</t>
-  </si>
-  <si>
     <t>udowodnić [coś]</t>
   </si>
   <si>
@@ -67,9 +52,6 @@
     <t>wybierać</t>
   </si>
   <si>
-    <t>A in Ordnung bringen</t>
-  </si>
-  <si>
     <t>uporządkować [coś]</t>
   </si>
   <si>
@@ -139,9 +121,6 @@
     <t>mieć słabość do [czegoś]</t>
   </si>
   <si>
-    <t>A in Zweifel ziehen</t>
-  </si>
-  <si>
     <t>podawać [coś] w wątpliwość</t>
   </si>
   <si>
@@ -493,9 +472,6 @@
     <t>eine Entscheidung treffen</t>
   </si>
   <si>
-    <t>podjąć decyzję</t>
-  </si>
-  <si>
     <t>in Kontakt stehen mit</t>
   </si>
   <si>
@@ -709,21 +685,12 @@
     <t>einen Antrag stellen auf A</t>
   </si>
   <si>
-    <t>postawić wniosek o</t>
-  </si>
-  <si>
     <t>Mut haben etw zu machen</t>
   </si>
   <si>
-    <t>odważyć się na coś</t>
-  </si>
-  <si>
     <t>einen Entschluss fassen</t>
   </si>
   <si>
-    <t>zdecydować się</t>
-  </si>
-  <si>
     <t>zur Ansicht gelangen</t>
   </si>
   <si>
@@ -769,15 +736,9 @@
     <t>Protest erheben</t>
   </si>
   <si>
-    <t>wysunąć protest</t>
-  </si>
-  <si>
     <t>Mitleid haben mit D</t>
   </si>
   <si>
-    <t>współczuć [komuś]</t>
-  </si>
-  <si>
     <t>Hass haben auf A</t>
   </si>
   <si>
@@ -788,38 +749,58 @@
   </si>
   <si>
     <t>poinformować kogoś o [czymś]</t>
+  </si>
+  <si>
+    <t>postawić wniosek o [coś]</t>
+  </si>
+  <si>
+    <t>odważyć się na [coś]</t>
+  </si>
+  <si>
+    <t>podjąć decyzję (E. f.)</t>
+  </si>
+  <si>
+    <t>podjąć decyzję (E. t)</t>
+  </si>
+  <si>
+    <t>wnieść protest</t>
+  </si>
+  <si>
+    <t>współczuć, mieć współczucie dla [kogoś]</t>
+  </si>
+  <si>
+    <t>unter Anklage stehen gegen G</t>
+  </si>
+  <si>
+    <t>etw auf Eis legen</t>
+  </si>
+  <si>
+    <t>etw zu Ende bringen</t>
+  </si>
+  <si>
+    <t>etw in Anspruch nehmen</t>
+  </si>
+  <si>
+    <t>etw unter Beweis stellen</t>
+  </si>
+  <si>
+    <t>etw in Ordnung bringen</t>
+  </si>
+  <si>
+    <t>etw in Zweifel ziehen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -831,7 +812,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -839,1301 +820,1515 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:130"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4008097165992"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.6963562753036"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1983805668016"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>91</v>
       </c>
-      <c r="AMJ46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>102</v>
       </c>
-      <c r="AMJ52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>128</v>
       </c>
-      <c r="AMJ65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="B71" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="B80" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>189</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>191</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>193</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>197</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>199</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>201</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>203</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>205</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>207</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
         <v>213</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>215</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
         <v>217</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>219</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
         <v>221</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="B118" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>223</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B119" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
         <v>224</v>
       </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
         <v>230</v>
       </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
         <v>232</v>
       </c>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
         <v>234</v>
       </c>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
         <v>238</v>
       </c>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="B127" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B128" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B123" s="1" t="s">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>256</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.59765625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.59765625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/nv-verbindungen/n-v-verb.xlsx
+++ b/nv-verbindungen/n-v-verb.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="587">
   <si>
     <t>im Widerspruch stehen zu D</t>
   </si>
@@ -52,9 +52,6 @@
     <t>wybierać</t>
   </si>
   <si>
-    <t>uporządkować [coś]</t>
-  </si>
-  <si>
     <t>Kritik üben an D</t>
   </si>
   <si>
@@ -85,15 +82,9 @@
     <t>dać szansę [komuś]</t>
   </si>
   <si>
-    <t>eine Chance war-nehmen</t>
-  </si>
-  <si>
     <t>skorzystać z szansy</t>
   </si>
   <si>
-    <t>jdm wegen G Vorwürfe machen/erheben</t>
-  </si>
-  <si>
     <t>czynić [komuś zarzuty] z powodu [czegoś]</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>podawać [coś] w wątpliwość</t>
   </si>
   <si>
-    <t>Untersuchungen anstellen</t>
-  </si>
-  <si>
     <t>badać</t>
   </si>
   <si>
@@ -322,9 +310,6 @@
     <t>eine Erlaubnis erteilen/geben</t>
   </si>
   <si>
-    <t>udzielić/dać pozwolenie</t>
-  </si>
-  <si>
     <t>einen Ratschlag geben/erteilen</t>
   </si>
   <si>
@@ -349,12 +334,6 @@
     <t>pytać, postawić pytanie</t>
   </si>
   <si>
-    <t>in Betrieb setzen</t>
-  </si>
-  <si>
-    <t>uruchomić (Bet.)</t>
-  </si>
-  <si>
     <t>jdm die Schuld geben</t>
   </si>
   <si>
@@ -391,9 +370,6 @@
     <t>uruchomić (Bew.)</t>
   </si>
   <si>
-    <t>Einfluss ausüben auf A</t>
-  </si>
-  <si>
     <t>wywrzeć wpływ na [coś/kogoś]</t>
   </si>
   <si>
@@ -439,9 +415,6 @@
     <t>przeprowadzić zmianę</t>
   </si>
   <si>
-    <t>Kontakt aufnehmen</t>
-  </si>
-  <si>
     <t>nawiązać kontakt</t>
   </si>
   <si>
@@ -478,9 +451,6 @@
     <t>pozostawać w kontakcie z [kimś]</t>
   </si>
   <si>
-    <t>Druck ausüben auf A</t>
-  </si>
-  <si>
     <t>wywierać nacisk na [coś/kogoś]</t>
   </si>
   <si>
@@ -502,9 +472,6 @@
     <t>wpaść w zakłopotanie</t>
   </si>
   <si>
-    <t>eine Korrektur vornehmen</t>
-  </si>
-  <si>
     <t>poprawić, skorygować</t>
   </si>
   <si>
@@ -514,9 +481,6 @@
     <t>wysuwać roszczenia [w stosunku do]</t>
   </si>
   <si>
-    <t>robić wrażenie na</t>
-  </si>
-  <si>
     <t>eine Überraschung bereiten</t>
   </si>
   <si>
@@ -634,9 +598,6 @@
     <t>wchodzić w rachubę</t>
   </si>
   <si>
-    <t>eine Verabredung treffen</t>
-  </si>
-  <si>
     <t>zawrzeć porozumienie</t>
   </si>
   <si>
@@ -697,9 +658,6 @@
     <t>dojść do poglądu</t>
   </si>
   <si>
-    <t>sich D Mühe geben</t>
-  </si>
-  <si>
     <t>zadać sobie trud</t>
   </si>
   <si>
@@ -788,6 +746,1038 @@
   </si>
   <si>
     <t>etw in Zweifel ziehen</t>
+  </si>
+  <si>
+    <t>ein Urteil fällen</t>
+  </si>
+  <si>
+    <t>ein Ende finden</t>
+  </si>
+  <si>
+    <t>Ausdruck finden</t>
+  </si>
+  <si>
+    <t>Beifall finden</t>
+  </si>
+  <si>
+    <t>Ruhe finden</t>
+  </si>
+  <si>
+    <t>einen Beweis führen</t>
+  </si>
+  <si>
+    <t>Krieg führen</t>
+  </si>
+  <si>
+    <t>jdm eine Auskunft geben</t>
+  </si>
+  <si>
+    <t>jdm Befehl geben</t>
+  </si>
+  <si>
+    <t>eine Erlaubnis geben</t>
+  </si>
+  <si>
+    <t>dać pozwolenie</t>
+  </si>
+  <si>
+    <t>udzielić pozwolenia</t>
+  </si>
+  <si>
+    <t>jdm die Freiheit geben</t>
+  </si>
+  <si>
+    <t>jdm seine Einwilligung geben</t>
+  </si>
+  <si>
+    <t>jdm die Garantie geben</t>
+  </si>
+  <si>
+    <t>jdm die Gelegenheit geben</t>
+  </si>
+  <si>
+    <t>jdm die Ohrfeige geben</t>
+  </si>
+  <si>
+    <t>jdm einen Tritt geben</t>
+  </si>
+  <si>
+    <t>jdm das Versprechen geben</t>
+  </si>
+  <si>
+    <t>jdm sein Wort geben</t>
+  </si>
+  <si>
+    <t>jdm seine Zustimmung geben</t>
+  </si>
+  <si>
+    <t>jdm den Vorzug geben</t>
+  </si>
+  <si>
+    <t>die Überzeugung gewinnen</t>
+  </si>
+  <si>
+    <t>einen Vorsprung gewinnen</t>
+  </si>
+  <si>
+    <t>einen Vortrag halten</t>
+  </si>
+  <si>
+    <t>ein Versprechen halten</t>
+  </si>
+  <si>
+    <t>sein Wort halten</t>
+  </si>
+  <si>
+    <t>Atem holen</t>
+  </si>
+  <si>
+    <t>sich eine Erkältung holen</t>
+  </si>
+  <si>
+    <t>sich den Tod holen</t>
+  </si>
+  <si>
+    <t>jdm ein Angebot machen</t>
+  </si>
+  <si>
+    <t>jdm Angst machen</t>
+  </si>
+  <si>
+    <t>mit jdm eine Ausnahme machen</t>
+  </si>
+  <si>
+    <t>eine Pause machen</t>
+  </si>
+  <si>
+    <t>Spaß machen</t>
+  </si>
+  <si>
+    <t>einen Versuch machen</t>
+  </si>
+  <si>
+    <t>jdm Vorwürfe machen wegen G</t>
+  </si>
+  <si>
+    <t>Einfluss nehmen auf A</t>
+  </si>
+  <si>
+    <t>ein Ende nehmen</t>
+  </si>
+  <si>
+    <t>Platz nehmen</t>
+  </si>
+  <si>
+    <t>Abhilfe schaffen</t>
+  </si>
+  <si>
+    <t>Klarheit schaffen</t>
+  </si>
+  <si>
+    <t>Ordnung schaffen</t>
+  </si>
+  <si>
+    <t>Ruhe schaffen</t>
+  </si>
+  <si>
+    <t>Arbeitsplätze schaffen</t>
+  </si>
+  <si>
+    <t>Frieden/Unfrieden stiften</t>
+  </si>
+  <si>
+    <t>Unruhe stiften</t>
+  </si>
+  <si>
+    <t>Handel treiben</t>
+  </si>
+  <si>
+    <t>Sport treiben</t>
+  </si>
+  <si>
+    <t>Erinnerungen wecken</t>
+  </si>
+  <si>
+    <t>Interesse wecken</t>
+  </si>
+  <si>
+    <t>die Neugier wecken</t>
+  </si>
+  <si>
+    <t>eine Erklärung ab-geben</t>
+  </si>
+  <si>
+    <t>seine Stimme ab-geben</t>
+  </si>
+  <si>
+    <t>ein Urteil ab-geben</t>
+  </si>
+  <si>
+    <t>einen Eid ab-legen</t>
+  </si>
+  <si>
+    <t>ein Geständnis ab-legen</t>
+  </si>
+  <si>
+    <t>eine Prüfung ab-legen</t>
+  </si>
+  <si>
+    <t>die Arbeit ab-schließen</t>
+  </si>
+  <si>
+    <t>die Diskussion ab-schließen</t>
+  </si>
+  <si>
+    <t>einen Vertrag ab-schließen</t>
+  </si>
+  <si>
+    <t>den Vorschlag an-nehmen</t>
+  </si>
+  <si>
+    <t>die Bedingung an-nehmen</t>
+  </si>
+  <si>
+    <t>die Einladung an-nehmen</t>
+  </si>
+  <si>
+    <t>Hilfe an-nehmen</t>
+  </si>
+  <si>
+    <t>Vernunft an-nehmen</t>
+  </si>
+  <si>
+    <t>Wette an-nehmen</t>
+  </si>
+  <si>
+    <t>Schaden an-richten</t>
+  </si>
+  <si>
+    <t>Verwüstungen an-richten</t>
+  </si>
+  <si>
+    <t>Nachforschungen an-stellen</t>
+  </si>
+  <si>
+    <t>Überlegungen an-stellen</t>
+  </si>
+  <si>
+    <t>Versuche an-stellen</t>
+  </si>
+  <si>
+    <t>den Dienst an-treten</t>
+  </si>
+  <si>
+    <t>die Fahrt an-treten</t>
+  </si>
+  <si>
+    <t>die Regierung an-treten</t>
+  </si>
+  <si>
+    <t>die Arbeit auf-geben</t>
+  </si>
+  <si>
+    <t>seinen Beruf auf-geben</t>
+  </si>
+  <si>
+    <t>die Hoffnung auf-geben</t>
+  </si>
+  <si>
+    <t>den Plan auf-geben</t>
+  </si>
+  <si>
+    <t>das Spiel auf-geben</t>
+  </si>
+  <si>
+    <t>den Widerstand auf-geben</t>
+  </si>
+  <si>
+    <t>eine Arbeit aus-führen</t>
+  </si>
+  <si>
+    <t>einen Auftrag aus-führen</t>
+  </si>
+  <si>
+    <t>einen Befehl aus-führen</t>
+  </si>
+  <si>
+    <t>einen Plan aus führen</t>
+  </si>
+  <si>
+    <t>eine Reparatur aus-führen</t>
+  </si>
+  <si>
+    <t>eine Dummheit begehen</t>
+  </si>
+  <si>
+    <t>Selbstmord begehen</t>
+  </si>
+  <si>
+    <t>Verrat begehen</t>
+  </si>
+  <si>
+    <t>seine Absicht durch-setzen</t>
+  </si>
+  <si>
+    <t>seine Forderungen durch-setzen</t>
+  </si>
+  <si>
+    <t>seine Idee durch-setzen</t>
+  </si>
+  <si>
+    <t>seine Meinung durch-setzen</t>
+  </si>
+  <si>
+    <t>Beschwerde ein-legen</t>
+  </si>
+  <si>
+    <t>Berufung ein-legen</t>
+  </si>
+  <si>
+    <t>ein gutes Wort ein-legen</t>
+  </si>
+  <si>
+    <t>ein Vorschlag ein-legen</t>
+  </si>
+  <si>
+    <t>einen Antrag ein-reichen</t>
+  </si>
+  <si>
+    <t>die Arbeit ein-stellen</t>
+  </si>
+  <si>
+    <t>die Herstellung ein-stellen</t>
+  </si>
+  <si>
+    <t>den Betrieb ein-stellen</t>
+  </si>
+  <si>
+    <t>das Rauchen ein-stellen</t>
+  </si>
+  <si>
+    <t>die Untersuchung ein-stellen</t>
+  </si>
+  <si>
+    <t>Besitz ergreifen von D</t>
+  </si>
+  <si>
+    <t>die Flucht ergreifen</t>
+  </si>
+  <si>
+    <t>die Gelegenheit ergreifen</t>
+  </si>
+  <si>
+    <t>Maßnahmen ergreifen</t>
+  </si>
+  <si>
+    <t>das Wort ergreifen</t>
+  </si>
+  <si>
+    <t>Anzeige erstatten</t>
+  </si>
+  <si>
+    <t>jdm Böses zu-fügen</t>
+  </si>
+  <si>
+    <t>sich eine Verletzung zu-ziehen</t>
+  </si>
+  <si>
+    <t>die Aufmerksamkeit lenken auf A</t>
+  </si>
+  <si>
+    <t>Ansprüche stellen an A</t>
+  </si>
+  <si>
+    <t>Bescheid wissen über A</t>
+  </si>
+  <si>
+    <t>Beziehungen haben zu D</t>
+  </si>
+  <si>
+    <t>Druck aus-üben auf A</t>
+  </si>
+  <si>
+    <t>sich Gedanken machen über A</t>
+  </si>
+  <si>
+    <t>Gefallen finden an D</t>
+  </si>
+  <si>
+    <t>sich Hoffnungen machen auf A</t>
+  </si>
+  <si>
+    <t>Konsequenzen ziehen aus D</t>
+  </si>
+  <si>
+    <t>Notiz nehmen von D</t>
+  </si>
+  <si>
+    <t>Protest ein-legen gegen A</t>
+  </si>
+  <si>
+    <t>Rache nehmen an D</t>
+  </si>
+  <si>
+    <t>ein Recht haben auf A</t>
+  </si>
+  <si>
+    <t>Schritt halten mit D</t>
+  </si>
+  <si>
+    <t>Stellung nehmen zu D</t>
+  </si>
+  <si>
+    <t>einen Unterschied machen zwischen D</t>
+  </si>
+  <si>
+    <t>eine Verabredung treffen mit D</t>
+  </si>
+  <si>
+    <t>Verantwortung übernehmen für A</t>
+  </si>
+  <si>
+    <t>einen Mord begehen an D</t>
+  </si>
+  <si>
+    <t>auf Ablehnung stoßen</t>
+  </si>
+  <si>
+    <t>etw in Angriff nehmen</t>
+  </si>
+  <si>
+    <t>etw in Aussicht stellen</t>
+  </si>
+  <si>
+    <t>etw in Betracht ziehen</t>
+  </si>
+  <si>
+    <t>etw in Betrieb setzen</t>
+  </si>
+  <si>
+    <t>uruchomić coś (Bet.)</t>
+  </si>
+  <si>
+    <t>etw in Beziehung setzen</t>
+  </si>
+  <si>
+    <t>etw in Brand setzen</t>
+  </si>
+  <si>
+    <t>in Brand geraten</t>
+  </si>
+  <si>
+    <t>etw in Diskussion stellen</t>
+  </si>
+  <si>
+    <t>zur Diskussion stehen</t>
+  </si>
+  <si>
+    <t>jdn unter Druck setzen</t>
+  </si>
+  <si>
+    <t>unter Druck stehen</t>
+  </si>
+  <si>
+    <t>jdn zur Einsicht bringen</t>
+  </si>
+  <si>
+    <t>zur Einsicht kommen</t>
+  </si>
+  <si>
+    <t>etw in Empfang nehmen</t>
+  </si>
+  <si>
+    <t>zu Ende kommen</t>
+  </si>
+  <si>
+    <t>zum Entschluss kommen</t>
+  </si>
+  <si>
+    <t>zum Ergebnis kommen</t>
+  </si>
+  <si>
+    <t>etw in Erfahrung bringen</t>
+  </si>
+  <si>
+    <t>jdn in Erstauen setzen</t>
+  </si>
+  <si>
+    <t>etw in Frage stellen</t>
+  </si>
+  <si>
+    <t>in Frage stehen</t>
+  </si>
+  <si>
+    <t>in Gang kommen</t>
+  </si>
+  <si>
+    <t>im eigenen Interesse liegen</t>
+  </si>
+  <si>
+    <t>etw in Kauf nehmen</t>
+  </si>
+  <si>
+    <t>in Konflikt geraten</t>
+  </si>
+  <si>
+    <t>etw in Kraft setzen</t>
+  </si>
+  <si>
+    <t>auf Kritik stoßen</t>
+  </si>
+  <si>
+    <t>jdn zum Lachen/Weinen bringen</t>
+  </si>
+  <si>
+    <t>etw zur Sprache bringen</t>
+  </si>
+  <si>
+    <t>zur Sprache kommen</t>
+  </si>
+  <si>
+    <t>eine Chance wahr-nehmen</t>
+  </si>
+  <si>
+    <t>Untersuchungen an-stellen</t>
+  </si>
+  <si>
+    <t>Einfluss aus-üben auf A</t>
+  </si>
+  <si>
+    <t>Kontakt auf-nehmen</t>
+  </si>
+  <si>
+    <t>eine Korrektur vor-nehmen</t>
+  </si>
+  <si>
+    <t>wydać wyrok</t>
+  </si>
+  <si>
+    <t>znaleźć koniec</t>
+  </si>
+  <si>
+    <t>znaleźć wyraz</t>
+  </si>
+  <si>
+    <t>uzyskać aprobatę/poklask</t>
+  </si>
+  <si>
+    <t>znaleźć spokój</t>
+  </si>
+  <si>
+    <t>przeprowadzić dowód</t>
+  </si>
+  <si>
+    <t>prowadzić wojnę</t>
+  </si>
+  <si>
+    <t>udzielić komuś informacji</t>
+  </si>
+  <si>
+    <t>wydać komuś rozkaz</t>
+  </si>
+  <si>
+    <t>zezwolić, dać zezwolenie</t>
+  </si>
+  <si>
+    <t>dać komuś okazję</t>
+  </si>
+  <si>
+    <t>dać komuś kopniaka</t>
+  </si>
+  <si>
+    <t>obiecać komuś, dać obietnicę</t>
+  </si>
+  <si>
+    <t>spoliczkować kogoś, dać policzek</t>
+  </si>
+  <si>
+    <t>zagwarantować komuś, dać gwarancję</t>
+  </si>
+  <si>
+    <t>dać komuś swoje słowo</t>
+  </si>
+  <si>
+    <t>dać komuś swoją zgodę</t>
+  </si>
+  <si>
+    <t>dać komuś pierwszeństwo</t>
+  </si>
+  <si>
+    <t>nabrać przekonania</t>
+  </si>
+  <si>
+    <t>zyskać przewagę</t>
+  </si>
+  <si>
+    <t>wykładać, mieć wykład</t>
+  </si>
+  <si>
+    <t>dotrzymywać obietnicy</t>
+  </si>
+  <si>
+    <t>dotrzymywać (swojego) słowa</t>
+  </si>
+  <si>
+    <t>nabrać powietrza, wziąć oddech</t>
+  </si>
+  <si>
+    <t>nabawić się przeziębienia</t>
+  </si>
+  <si>
+    <t>sprowadzić na siebie śmierć</t>
+  </si>
+  <si>
+    <t>eine gute Arbeit leisten</t>
+  </si>
+  <si>
+    <t>zrobić dobrą robotę</t>
+  </si>
+  <si>
+    <t>Ersatz leisten für A</t>
+  </si>
+  <si>
+    <t>zrekompensować coś</t>
+  </si>
+  <si>
+    <t>złożyć komuś ofertę</t>
+  </si>
+  <si>
+    <t>przestraszyć kogoś, narobić komuś strachu</t>
+  </si>
+  <si>
+    <t>zrobić wyjątek dla kogoś</t>
+  </si>
+  <si>
+    <t>sich D eine Mühe geben</t>
+  </si>
+  <si>
+    <t>zrobić przerwę</t>
+  </si>
+  <si>
+    <t>zrobić przyjemność</t>
+  </si>
+  <si>
+    <t>dokonać rozróżnienia pomiędzy [czymś]</t>
+  </si>
+  <si>
+    <t>wywierać wpływ na [coś]</t>
+  </si>
+  <si>
+    <t>kończyć się</t>
+  </si>
+  <si>
+    <t>zająć miejsce</t>
+  </si>
+  <si>
+    <t>mścić się na [kimś]</t>
+  </si>
+  <si>
+    <t>zająć stanowisko [w jakiejś sprawie]</t>
+  </si>
+  <si>
+    <t>zaradzić</t>
+  </si>
+  <si>
+    <t>wyjaśnić</t>
+  </si>
+  <si>
+    <t>zaprowadzić porządek</t>
+  </si>
+  <si>
+    <t>uporządkować [coś], doprowadzić do porządku</t>
+  </si>
+  <si>
+    <t>zaprowadzić spokój</t>
+  </si>
+  <si>
+    <t>tworzyć miejsca pracy</t>
+  </si>
+  <si>
+    <t>siać niepokój</t>
+  </si>
+  <si>
+    <t>zaprowadzić pokój/zasiać niezgodę</t>
+  </si>
+  <si>
+    <t>przedsięwziąć kroki [w kierunku]</t>
+  </si>
+  <si>
+    <t>Maßnahmen treffen zu D</t>
+  </si>
+  <si>
+    <t>zu viel Aufwand treiben mit D</t>
+  </si>
+  <si>
+    <t>poświęcać czemuś zbyt wiele wysiłku</t>
+  </si>
+  <si>
+    <t>prowadzić handel</t>
+  </si>
+  <si>
+    <t>Missbrauch treiben mit D</t>
+  </si>
+  <si>
+    <t>nadużywać [czegoś]</t>
+  </si>
+  <si>
+    <t>uprawiać sport</t>
+  </si>
+  <si>
+    <t>obudzić wspomnienia</t>
+  </si>
+  <si>
+    <t>wzbudzać zainteresowanie</t>
+  </si>
+  <si>
+    <t>wzbudzać ciekawość</t>
+  </si>
+  <si>
+    <t>złożyć oświadczenie</t>
+  </si>
+  <si>
+    <t>oddać głos, zagłosować</t>
+  </si>
+  <si>
+    <t>wydać osąd/opinię</t>
+  </si>
+  <si>
+    <t>składać przysięgę</t>
+  </si>
+  <si>
+    <t>złożyć zeznanie/przyznać się</t>
+  </si>
+  <si>
+    <t>zdać, złożyć egazmin</t>
+  </si>
+  <si>
+    <t>zakończyć pracę</t>
+  </si>
+  <si>
+    <t>zakończyć dyskusję</t>
+  </si>
+  <si>
+    <t>zawrzeć umowę</t>
+  </si>
+  <si>
+    <t>przyjąć propozycję</t>
+  </si>
+  <si>
+    <t>przyjąć warunek</t>
+  </si>
+  <si>
+    <t>przyjąć zaproszenie</t>
+  </si>
+  <si>
+    <t>przyjąć pomoc</t>
+  </si>
+  <si>
+    <t>pójść za głosem rozsądku</t>
+  </si>
+  <si>
+    <t>przyjąć zakład</t>
+  </si>
+  <si>
+    <t>wyrządzić szkody</t>
+  </si>
+  <si>
+    <t>czynić spustoszenia</t>
+  </si>
+  <si>
+    <t>rozważać coś, przeprowadzać rozważania</t>
+  </si>
+  <si>
+    <t>badać coś, prowadzić badania</t>
+  </si>
+  <si>
+    <t>podejmować próby</t>
+  </si>
+  <si>
+    <t>objąć służbę</t>
+  </si>
+  <si>
+    <t>rozpocząć podróż</t>
+  </si>
+  <si>
+    <t>obejmować rząd</t>
+  </si>
+  <si>
+    <t>porzucić zawód</t>
+  </si>
+  <si>
+    <t>zrezygnować z pracy</t>
+  </si>
+  <si>
+    <t>porzucić plan</t>
+  </si>
+  <si>
+    <t>porzucić nadzieję</t>
+  </si>
+  <si>
+    <t>zrezygnować z gry</t>
+  </si>
+  <si>
+    <t>zrezygnować z oporu</t>
+  </si>
+  <si>
+    <t>wykonywać, realizować pracę</t>
+  </si>
+  <si>
+    <t>realizować zlecenie/zamówienie</t>
+  </si>
+  <si>
+    <t>wykonywać rozkaz</t>
+  </si>
+  <si>
+    <t>wykonywać plan</t>
+  </si>
+  <si>
+    <t>wykonywać naprawę</t>
+  </si>
+  <si>
+    <t>popełnić głupstwo</t>
+  </si>
+  <si>
+    <t>einen Fehler begehen</t>
+  </si>
+  <si>
+    <t>popełnić błąd</t>
+  </si>
+  <si>
+    <t>popełnić morderstwo na [kimś]</t>
+  </si>
+  <si>
+    <t>popełnić samobójstwo</t>
+  </si>
+  <si>
+    <t>zdradzić, dopuścić się zdrady</t>
+  </si>
+  <si>
+    <t>przeforsować swój zamiar</t>
+  </si>
+  <si>
+    <t>przeforsować swoje żądanie</t>
+  </si>
+  <si>
+    <t>przeforsować swój pomysł</t>
+  </si>
+  <si>
+    <t>przeforsować swoje zdanie</t>
+  </si>
+  <si>
+    <t>wnosić zażalenie</t>
+  </si>
+  <si>
+    <t>wnosić odwołanie</t>
+  </si>
+  <si>
+    <t>wstawiać się za kimś (dobrym słowem)</t>
+  </si>
+  <si>
+    <t>zgłosić propozycję</t>
+  </si>
+  <si>
+    <t>złożyć wniosek</t>
+  </si>
+  <si>
+    <t>przerwać, wstrzymać pracę</t>
+  </si>
+  <si>
+    <t>wstrzymać produkcję</t>
+  </si>
+  <si>
+    <t>wstrzymać funkcjonowanie</t>
+  </si>
+  <si>
+    <t>przestać palić</t>
+  </si>
+  <si>
+    <t>przerwać badanie</t>
+  </si>
+  <si>
+    <t>zawładnąć [czymś/kimś]</t>
+  </si>
+  <si>
+    <t>rzucić się do ucieczki</t>
+  </si>
+  <si>
+    <t>skorzystać z okazji</t>
+  </si>
+  <si>
+    <t>podejmować kroki</t>
+  </si>
+  <si>
+    <t>zabierać głos</t>
+  </si>
+  <si>
+    <t>składać doniesienie</t>
+  </si>
+  <si>
+    <t>Bericht über A erstatten</t>
+  </si>
+  <si>
+    <t>składać raport [z czegoś]</t>
+  </si>
+  <si>
+    <t>wyrządzić komuś coś złego</t>
+  </si>
+  <si>
+    <t>jdm Kummer bereiten</t>
+  </si>
+  <si>
+    <t>przysporzyć komuś zmartwień</t>
+  </si>
+  <si>
+    <t>zadać komuś klęską</t>
+  </si>
+  <si>
+    <t>jdm eine Niederlage bereiten</t>
+  </si>
+  <si>
+    <t>doznać obrażeń</t>
+  </si>
+  <si>
+    <t>stawiać [komuś] wymagania</t>
+  </si>
+  <si>
+    <t>wiedzieć [o czymś]</t>
+  </si>
+  <si>
+    <t>mieć relacje z [kimś]</t>
+  </si>
+  <si>
+    <t>myśleć [o czymś]</t>
+  </si>
+  <si>
+    <t>znajdować upodobanie w [czymś]</t>
+  </si>
+  <si>
+    <t>robić sobie nadzieje na [coś]</t>
+  </si>
+  <si>
+    <t>wyciągnąć konsekwencje/wnioski z [czegoś]</t>
+  </si>
+  <si>
+    <t>zwrócić uwagę na [coś] (N.)</t>
+  </si>
+  <si>
+    <t>zwrócić uwagę na [coś] (A.)</t>
+  </si>
+  <si>
+    <t>złożyć protest przeciwko [czemuś]</t>
+  </si>
+  <si>
+    <t>mieć prawo do [czegoś]</t>
+  </si>
+  <si>
+    <t>dotrzymywać [komuś] kroku</t>
+  </si>
+  <si>
+    <t>przejąć odpowiedzialność [za coś]</t>
+  </si>
+  <si>
+    <t>spotkać się z odmową</t>
+  </si>
+  <si>
+    <t>zabierać się do czegoś, zająć się czymś</t>
+  </si>
+  <si>
+    <t>obiecać coś komuś (A.)</t>
+  </si>
+  <si>
+    <t>wziąć pod uwagę</t>
+  </si>
+  <si>
+    <t>powiązywać coś (z czymś)</t>
+  </si>
+  <si>
+    <t>in Beziehung stehen</t>
+  </si>
+  <si>
+    <t>stać/być w związku z czymś</t>
+  </si>
+  <si>
+    <t>podpalić coś</t>
+  </si>
+  <si>
+    <t>zapalić się, zająć się ogniem</t>
+  </si>
+  <si>
+    <t>poddać coś dyskusji</t>
+  </si>
+  <si>
+    <t>być przedmiotem dyskusji</t>
+  </si>
+  <si>
+    <t>stawiać kogoś pod naciskiem</t>
+  </si>
+  <si>
+    <t>być pod presją</t>
+  </si>
+  <si>
+    <t>dojść do przekonania</t>
+  </si>
+  <si>
+    <t>przyjąć, przywitać coś</t>
+  </si>
+  <si>
+    <t>zmierzać do końca, kończyć</t>
+  </si>
+  <si>
+    <t>dojść do decyzji</t>
+  </si>
+  <si>
+    <t>dojść do rezultatu</t>
+  </si>
+  <si>
+    <t>dowiedzieć się czegoś [E.]</t>
+  </si>
+  <si>
+    <t>wprowadzić kogoś w osłupienie</t>
+  </si>
+  <si>
+    <t>zakwestionować coś</t>
+  </si>
+  <si>
+    <t>stać pod znakiem zapytania</t>
+  </si>
+  <si>
+    <t>rozpocząć się, ruszyć</t>
+  </si>
+  <si>
+    <t>leżeć we własnym interesie</t>
+  </si>
+  <si>
+    <t>pogodzić się z czymś, zaakceptować coś</t>
+  </si>
+  <si>
+    <t>popaść w konflikt</t>
+  </si>
+  <si>
+    <t>wprowadzić w życie (prawo)</t>
+  </si>
+  <si>
+    <t>spotkać się z krytyką</t>
+  </si>
+  <si>
+    <t>doprowadzić kogoś do śmiechu/płaczu</t>
+  </si>
+  <si>
+    <t>jdm von Nutzen sein</t>
+  </si>
+  <si>
+    <t>przydawać się komuś</t>
+  </si>
+  <si>
+    <t>podjąć, poruszyć jakiś temat</t>
+  </si>
+  <si>
+    <t>stać się przedmiotem dyskusji</t>
+  </si>
+  <si>
+    <t>dać komuś wolność</t>
+  </si>
+  <si>
+    <t>doprowadzić kogoś do zrozumienia</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1144,7 +2134,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1153,7 +2143,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1162,7 +2152,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1180,7 +2170,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1189,7 +2179,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1207,1093 +2197,2405 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>241</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
+      <c r="A22" t="s">
+        <v>406</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>93</v>
+      <c r="A51" t="s">
+        <v>278</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>252</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>377</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>118</v>
+      <c r="A64" t="s">
+        <v>109</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>122</v>
+      <c r="A66" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>407</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
-        <v>142</v>
+      <c r="A76" t="s">
+        <v>408</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>146</v>
+      <c r="A78" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>247</v>
+        <v>139</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>151</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>156</v>
+        <v>358</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>159</v>
+      <c r="A85" t="s">
+        <v>147</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>161</v>
+      <c r="A86" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>409</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>205</v>
+        <v>370</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="2" t="s">
-        <v>226</v>
+      <c r="A121" t="s">
+        <v>443</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>243</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>244</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>246</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>247</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>249</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>251</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>257</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>259</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>260</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>261</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>263</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>264</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>265</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>266</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>267</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>268</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>269</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>270</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>271</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>436</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>438</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>273</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>274</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>275</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>276</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>277</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>369</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>280</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>281</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>365</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>368</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>283</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>284</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>285</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>286</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>287</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>288</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>289</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>461</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>462</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>290</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>465</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>291</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>292</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>293</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>294</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>295</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>296</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>297</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>298</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>299</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>300</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>301</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>302</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>303</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>304</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>305</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>306</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>307</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>308</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>309</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>310</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>311</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>312</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>313</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>314</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>315</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>316</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>317</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>318</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>319</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>321</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>320</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>322</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>323</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>324</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>325</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>326</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>327</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>328</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>329</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>506</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>372</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>330</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>331</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>332</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>333</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>334</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>335</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>336</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>337</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>338</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>339</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>340</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>341</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>342</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>343</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>344</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>345</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>346</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>347</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>348</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>349</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>350</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>351</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>531</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>352</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>534</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>537</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>353</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>354</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>355</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>356</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>357</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>359</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>360</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>361</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>362</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>363</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>364</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>366</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>367</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>371</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>373</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>374</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>375</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>376</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>379</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>557</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>380</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>381</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>382</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>383</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>384</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>385</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>386</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>387</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>388</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>389</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>390</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>391</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>392</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>393</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>394</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>395</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>396</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>397</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>398</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>399</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>400</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>401</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>402</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>581</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>403</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>404</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
